--- a/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.981647949870258</v>
+        <v>13.98164795974948</v>
       </c>
       <c r="C2">
-        <v>4.4860377939991656</v>
+        <v>4.486037811167483</v>
       </c>
       <c r="D2">
-        <v>19.280604858557311</v>
+        <v>19.280604917287565</v>
       </c>
       <c r="E2">
-        <v>6.1041749910856371</v>
+        <v>6.1041750649539521</v>
       </c>
       <c r="F2">
-        <v>28.005157365552318</v>
+        <v>28.005157382535945</v>
       </c>
       <c r="G2">
-        <v>7.6420471038897233</v>
+        <v>7.6420471189987405</v>
       </c>
       <c r="H2">
-        <v>-0.36911255522978254</v>
+        <v>-0.36911254167196045</v>
       </c>
       <c r="I2">
-        <v>8.2147497025884437</v>
+        <v>8.2147497140084305</v>
       </c>
       <c r="J2">
-        <v>8.1048064859324196</v>
+        <v>8.1048064915693985</v>
       </c>
       <c r="K2">
-        <v>-3.0931338177390133</v>
+        <v>-3.093133803092857</v>
       </c>
       <c r="L2">
-        <v>7.7377962505011526</v>
+        <v>7.737796273277171</v>
       </c>
       <c r="M2">
-        <v>3.9007644157851638</v>
+        <v>3.9007644154138239</v>
       </c>
       <c r="N2">
-        <v>1.0766656953631843</v>
+        <v>1.0766657374363142</v>
       </c>
       <c r="O2">
-        <v>5.4999308818002346</v>
+        <v>5.4999309154243381</v>
       </c>
       <c r="P2">
-        <v>6.157939716481617</v>
+        <v>6.1579397394234414</v>
       </c>
       <c r="Q2">
-        <v>2.3435258627265796</v>
+        <v>2.3435258799992194</v>
       </c>
       <c r="R2">
-        <v>1.8255480251768061</v>
+        <v>1.8255480253058196</v>
       </c>
       <c r="S2">
-        <v>9.294702521775422</v>
+        <v>9.2947025314223577</v>
       </c>
       <c r="T2">
-        <v>-3.6195791186663397</v>
+        <v>-3.619579117478037</v>
       </c>
       <c r="U2">
-        <v>-2.242263367002526</v>
+        <v>-2.2422633576752475</v>
       </c>
       <c r="V2">
-        <v>-3.808267155528991E-2</v>
+        <v>-3.8082650703746952E-2</v>
       </c>
       <c r="W2">
-        <v>8.4789072346033922</v>
+        <v>8.4789072682536748</v>
       </c>
       <c r="X2">
-        <v>-0.84086971551159184</v>
+        <v>-0.84086971848507941</v>
       </c>
       <c r="Y2">
-        <v>-3.7688287541960257</v>
+        <v>-3.7688287461170895</v>
       </c>
       <c r="Z2">
-        <v>0.24761847345117477</v>
+        <v>0.24761848740961784</v>
       </c>
       <c r="AA2">
-        <v>8.6086801276693929</v>
+        <v>8.6086801062009037</v>
       </c>
       <c r="AB2">
-        <v>6.644608776623806</v>
+        <v>6.6446087854997922</v>
       </c>
       <c r="AC2">
-        <v>9.8593496948748243</v>
+        <v>9.8593497264670393</v>
       </c>
       <c r="AD2">
-        <v>6.279805895577006</v>
+        <v>6.2798058978044775</v>
       </c>
       <c r="AE2">
-        <v>1.3624949385553011</v>
+        <v>1.3624949268926045</v>
       </c>
       <c r="AF2">
-        <v>1.6649620091835122</v>
+        <v>1.6649620235352287</v>
       </c>
       <c r="AG2">
-        <v>4.7532160408766515</v>
+        <v>4.7532161230490075</v>
       </c>
       <c r="AH2">
-        <v>3.2390217589812496</v>
+        <v>3.2390217684583957</v>
       </c>
       <c r="AI2">
-        <v>24.360019406716741</v>
+        <v>24.360019399360525</v>
       </c>
       <c r="AJ2">
-        <v>5.998190179125781</v>
+        <v>5.9981902201881647</v>
       </c>
       <c r="AK2">
-        <v>7.3026305693536786</v>
+        <v>7.3026305641463933</v>
       </c>
       <c r="AL2">
-        <v>-3.0636610299308509</v>
+        <v>-3.0636609994200485</v>
       </c>
       <c r="AM2">
-        <v>2.1079297945333573</v>
+        <v>2.1079298239140165</v>
       </c>
       <c r="AN2">
-        <v>1.7831116870660217</v>
+        <v>1.7831117410557156</v>
       </c>
       <c r="AO2">
-        <v>-1.1527132375848352</v>
+        <v>-1.1527132061108813</v>
       </c>
       <c r="AP2">
-        <v>1.6060316573931865</v>
+        <v>1.6060316792754554</v>
       </c>
       <c r="AQ2">
-        <v>1.7468664766890254</v>
+        <v>1.7468665119103974</v>
       </c>
       <c r="AR2">
-        <v>4.1231704496364028</v>
+        <v>4.123170450447569</v>
       </c>
       <c r="AS2">
-        <v>1.7406090592548633</v>
+        <v>1.7406090846600311</v>
       </c>
       <c r="AT2">
-        <v>-2.4260162522124893</v>
+        <v>-2.4260162209133456</v>
       </c>
       <c r="AU2">
-        <v>0.91086890541301724</v>
+        <v>0.91086892894774507</v>
       </c>
       <c r="AV2">
-        <v>5.1698496061865997</v>
+        <v>5.1698496276793193</v>
       </c>
       <c r="AW2">
-        <v>-0.21443505283996819</v>
+        <v>-0.21443502382781929</v>
       </c>
       <c r="AX2">
-        <v>-0.34241658825492061</v>
+        <v>-0.34241656618964078</v>
       </c>
       <c r="AY2">
-        <v>-0.48169693171438699</v>
+        <v>-0.48169691560082473</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.807652651233369</v>
+        <v>13.807652646956136</v>
       </c>
       <c r="C3">
-        <v>8.138817500783416</v>
+        <v>8.1388175002398526</v>
       </c>
       <c r="D3">
-        <v>-4.2763367786664519</v>
+        <v>-4.2763367419846103</v>
       </c>
       <c r="E3">
-        <v>-3.3312814415200891</v>
+        <v>-3.3312814388651391</v>
       </c>
       <c r="F3">
-        <v>13.282208217381372</v>
+        <v>13.282208218822428</v>
       </c>
       <c r="G3">
-        <v>2.7617532688296387</v>
+        <v>2.7617532665182751</v>
       </c>
       <c r="H3">
-        <v>3.0177502941655043</v>
+        <v>3.0177503371129011</v>
       </c>
       <c r="I3">
-        <v>1.9422644812218059</v>
+        <v>1.9422644716398814</v>
       </c>
       <c r="J3">
-        <v>4.7154151493277006</v>
+        <v>4.7154151566809173</v>
       </c>
       <c r="K3">
-        <v>12.326142373033244</v>
+        <v>12.326142396365606</v>
       </c>
       <c r="L3">
-        <v>0.86684680231461897</v>
+        <v>0.86684682639113186</v>
       </c>
       <c r="M3">
-        <v>3.9591499117967701</v>
+        <v>3.9592997779080519</v>
       </c>
       <c r="N3">
-        <v>1.6881353806820061</v>
+        <v>1.6881353977750109</v>
       </c>
       <c r="O3">
-        <v>4.2882762370947631</v>
+        <v>4.2882762550519846</v>
       </c>
       <c r="P3">
-        <v>-14.398174508419553</v>
+        <v>-14.398174486196808</v>
       </c>
       <c r="Q3">
-        <v>1.8542039804696671</v>
+        <v>1.8542040236598685</v>
       </c>
       <c r="R3">
-        <v>7.3635987700944243</v>
+        <v>7.3635987890882975</v>
       </c>
       <c r="S3">
-        <v>8.4985780057228446</v>
+        <v>8.4985780167608027</v>
       </c>
       <c r="T3">
-        <v>6.8287234654212758</v>
+        <v>6.8287234797954515</v>
       </c>
       <c r="U3">
-        <v>-1.6912129127062914</v>
+        <v>-1.6912128965425897</v>
       </c>
       <c r="V3">
-        <v>-3.9898806651434837</v>
+        <v>-3.9898806538211726</v>
       </c>
       <c r="W3">
-        <v>0.33273377943634991</v>
+        <v>0.33273377921793268</v>
       </c>
       <c r="X3">
-        <v>9.9359854616148997</v>
+        <v>9.9359854790849305</v>
       </c>
       <c r="Y3">
-        <v>5.556499948589404</v>
+        <v>5.5564999775994721</v>
       </c>
       <c r="Z3">
-        <v>-2.8816627813543163</v>
+        <v>-2.881662762372998</v>
       </c>
       <c r="AA3">
-        <v>6.9231834290550829</v>
+        <v>6.9231834328153647</v>
       </c>
       <c r="AB3">
-        <v>8.5774016530864508</v>
+        <v>8.5774016385844405</v>
       </c>
       <c r="AC3">
-        <v>4.7145624453029331</v>
+        <v>4.7145624701458582</v>
       </c>
       <c r="AD3">
-        <v>1.9839739713492681</v>
+        <v>1.9839739839454333</v>
       </c>
       <c r="AE3">
-        <v>3.2998803855828589</v>
+        <v>3.2998803692479677</v>
       </c>
       <c r="AF3">
-        <v>4.5094176846175076</v>
+        <v>4.5094176923887641</v>
       </c>
       <c r="AG3">
-        <v>6.4431801692665767</v>
+        <v>6.4431801895679168</v>
       </c>
       <c r="AH3">
-        <v>5.3708168452022758</v>
+        <v>5.3708168512725383</v>
       </c>
       <c r="AI3">
-        <v>9.4028616361915347</v>
+        <v>9.4028616706140369</v>
       </c>
       <c r="AJ3">
-        <v>2.0049352333378545</v>
+        <v>2.0049352472268014</v>
       </c>
       <c r="AK3">
-        <v>11.186092401514127</v>
+        <v>11.186092423562577</v>
       </c>
       <c r="AL3">
-        <v>-1.4228082711837886</v>
+        <v>-1.4228082343416502</v>
       </c>
       <c r="AM3">
-        <v>3.0874046428401818</v>
+        <v>3.0874046859240645</v>
       </c>
       <c r="AN3">
-        <v>9.4515422398360354</v>
+        <v>9.4515422670352773</v>
       </c>
       <c r="AO3">
-        <v>12.374451566010821</v>
+        <v>12.37445158673378</v>
       </c>
       <c r="AP3">
-        <v>-3.1422188669974331</v>
+        <v>-3.1422188584718178</v>
       </c>
       <c r="AQ3">
-        <v>-0.76916317768966236</v>
+        <v>-0.76916315094447474</v>
       </c>
       <c r="AR3">
-        <v>0.83202761544228043</v>
+        <v>0.83202762846383371</v>
       </c>
       <c r="AS3">
-        <v>8.5438860586534862</v>
+        <v>8.5438860665091045</v>
       </c>
       <c r="AT3">
-        <v>0.17689421109316858</v>
+        <v>0.17689423870010504</v>
       </c>
       <c r="AU3">
-        <v>1.2829800268579847</v>
+        <v>1.282980037824516</v>
       </c>
       <c r="AV3">
-        <v>0.43702289805987138</v>
+        <v>0.43702295269216773</v>
       </c>
       <c r="AW3">
-        <v>2.7446857761848085</v>
+        <v>2.7446857947520464</v>
       </c>
       <c r="AX3">
-        <v>-15.302006405283491</v>
+        <v>-15.302006403422928</v>
       </c>
       <c r="AY3">
-        <v>-8.6125478465153602</v>
+        <v>-8.6125478266370354</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.98164795974948</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.486037811167483</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>19.280604917287565</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.1041750649539521</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>28.005157382535945</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.6420471189987405</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-0.36911254167196045</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.2147497140084305</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.1048064915693985</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-3.093133803092857</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>7.737796273277171</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>3.9007644154138239</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.0766657374363142</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>5.4999309154243381</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>6.1579397394234414</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.3435258799992194</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.8255480253058196</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>9.2947025314223577</v>
+        <v>9.2947226477153091</v>
       </c>
       <c r="T2">
-        <v>-3.619579117478037</v>
+        <v>-3.6195637190945811</v>
       </c>
       <c r="U2">
-        <v>-2.2422633576752475</v>
+        <v>-2.2422441707165883</v>
       </c>
       <c r="V2">
-        <v>-3.8082650703746952E-2</v>
+        <v>-3.8066208809207552E-2</v>
       </c>
       <c r="W2">
-        <v>8.4789072682536748</v>
+        <v>8.4789244024546555</v>
       </c>
       <c r="X2">
-        <v>-0.84086971848507941</v>
+        <v>-0.84088996045445452</v>
       </c>
       <c r="Y2">
-        <v>-3.7688287461170895</v>
+        <v>-3.7688459260821232</v>
       </c>
       <c r="Z2">
-        <v>0.24761848740961784</v>
+        <v>0.24759791867923978</v>
       </c>
       <c r="AA2">
-        <v>8.6086801062009037</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>6.6446087854997922</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9.8593497264670393</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6.2798058978044775</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.3624949268926045</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.6649620235352287</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>4.7532161230490075</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>3.2390217684583957</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>24.360019399360525</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>5.9981902201881647</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>7.3026305641463933</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-3.0636609994200485</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>2.1079298239140165</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>1.7831117410557156</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-1.1527132061108813</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6060316792754554</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.7468665119103974</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>4.123170450447569</v>
+        <v>4.1231891562505361</v>
       </c>
       <c r="AS2">
-        <v>1.7406090846600311</v>
+        <v>1.7406252819684456</v>
       </c>
       <c r="AT2">
         <v>-2.4260162209133456</v>
       </c>
       <c r="AU2">
-        <v>0.91086892894774507</v>
+        <v>0.91088552037713977</v>
       </c>
       <c r="AV2">
         <v>5.1698496276793193</v>
       </c>
       <c r="AW2">
-        <v>-0.21443502382781929</v>
+        <v>-0.21445603850513886</v>
       </c>
       <c r="AX2">
-        <v>-0.34241656618964078</v>
+        <v>-0.34243382537240646</v>
       </c>
       <c r="AY2">
         <v>-0.48169691560082473</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.807652646956136</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.1388175002398526</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-4.2763367419846103</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-3.3312814388651391</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>13.282208218822428</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>2.7617532665182751</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.0177503371129011</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.9422644716398814</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>4.7154151566809173</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>12.326142396365606</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.86684682639113186</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>3.9592997779080519</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.6881353977750109</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.2882762550519846</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-14.398174486196808</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.8542040236598685</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.3635987890882975</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>8.4985780167608027</v>
       </c>
       <c r="T3">
-        <v>6.8287234797954515</v>
+        <v>6.8287403341812105</v>
       </c>
       <c r="U3">
-        <v>-1.6912128965425897</v>
+        <v>-1.6911936105145635</v>
       </c>
       <c r="V3">
-        <v>-3.9898806538211726</v>
+        <v>-3.9898661093899515</v>
       </c>
       <c r="W3">
-        <v>0.33273377921793268</v>
+        <v>0.33275118215312927</v>
       </c>
       <c r="X3">
-        <v>9.9359854790849305</v>
+        <v>9.9360100153657953</v>
       </c>
       <c r="Y3">
-        <v>5.5564999775994721</v>
+        <v>5.5564788133836576</v>
       </c>
       <c r="Z3">
-        <v>-2.881662762372998</v>
+        <v>-2.8816816132922489</v>
       </c>
       <c r="AA3">
-        <v>6.9231834328153647</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.5774016385844405</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>4.7145624701458582</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1.9839739839454333</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>3.2998803692479677</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.5094176923887641</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>6.4431801895679168</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>5.3708168512725383</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>9.4028616706140369</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>2.0049352472268014</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>11.186092423562577</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-1.4228082343416502</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>3.0874046859240645</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>9.4515422670352773</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>12.37445158673378</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-3.1422188584718178</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-0.76916315094447474</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.83202762846383371</v>
+        <v>0.83204622000806416</v>
       </c>
       <c r="AS3">
         <v>8.5438860665091045</v>
       </c>
       <c r="AT3">
-        <v>0.17689423870010504</v>
+        <v>0.17691430096508085</v>
       </c>
       <c r="AU3">
-        <v>1.282980037824516</v>
+        <v>1.2829952798894082</v>
       </c>
       <c r="AV3">
-        <v>0.43702295269216773</v>
+        <v>0.4370060520527958</v>
       </c>
       <c r="AW3">
-        <v>2.7446857947520464</v>
+        <v>2.7447070362306674</v>
       </c>
       <c r="AX3">
-        <v>-15.302006403422928</v>
+        <v>-15.302021687305864</v>
       </c>
       <c r="AY3">
         <v>-8.6125478266370354</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.981671405365176</v>
+        <v>5.4999095751223175</v>
       </c>
       <c r="C2">
-        <v>3.582624221287535</v>
+        <v>1.4852307483932303</v>
       </c>
       <c r="D2">
-        <v>19.280604858557311</v>
+        <v>1.783092086562087</v>
       </c>
       <c r="E2">
-        <v>2.6039927439492119</v>
+        <v>1.7468665119103974</v>
       </c>
       <c r="F2">
         <v>28.005184281845402</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.807652651233369</v>
+        <v>4.2882762550519846</v>
       </c>
       <c r="C3">
-        <v>3.9623964845100397</v>
+        <v>7.3636155101970564</v>
       </c>
       <c r="D3">
-        <v>-4.2763153771301532</v>
+        <v>9.4515205349522233</v>
       </c>
       <c r="E3">
-        <v>-3.3312670472368007</v>
+        <v>-0.81485189840192296</v>
       </c>
       <c r="F3">
         <v>13.282185760823079</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.981671405365176</v>
+        <v>19.484201272969916</v>
       </c>
       <c r="C2">
-        <v>3.582624221287535</v>
+        <v>5.4999095751223175</v>
       </c>
       <c r="D2">
-        <v>19.280604858557311</v>
+        <v>6.3435202707163434</v>
       </c>
       <c r="E2">
-        <v>2.6039927439492119</v>
+        <v>1.783092086562087</v>
       </c>
       <c r="F2">
         <v>28.005184281845402</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.807652651233369</v>
+        <v>33.143232035472344</v>
       </c>
       <c r="C3">
-        <v>3.9623964845100397</v>
+        <v>4.2882762550519846</v>
       </c>
       <c r="D3">
-        <v>-4.2763153771301532</v>
+        <v>-3.1778405313996139</v>
       </c>
       <c r="E3">
-        <v>-3.3312670472368007</v>
+        <v>9.4515205349522233</v>
       </c>
       <c r="F3">
         <v>13.282185760823079</v>

--- a/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_GMtend_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.981671415244401</v>
+      </c>
+      <c r="C2">
+        <v>3.5826242383074103</v>
+      </c>
+      <c r="D2">
+        <v>19.280604917287565</v>
+      </c>
+      <c r="E2">
+        <v>2.6039928153807463</v>
+      </c>
+      <c r="F2">
+        <v>28.005184298829032</v>
+      </c>
+      <c r="G2">
+        <v>7.6420677064667677</v>
+      </c>
+      <c r="H2">
+        <v>-0.36913026213948152</v>
+      </c>
+      <c r="I2">
+        <v>8.2147705064619778</v>
+      </c>
+      <c r="J2">
+        <v>8.1047841580991609</v>
+      </c>
+      <c r="K2">
+        <v>-3.0931518097039352</v>
+      </c>
+      <c r="L2">
+        <v>7.7378159767966723</v>
+      </c>
+      <c r="M2">
+        <v>3.3631384796678687</v>
+      </c>
+      <c r="N2">
         <v>19.484201272969916</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>5.4999095751223175</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>6.1579397394234414</v>
+      </c>
+      <c r="Q2">
+        <v>-12.463613587095383</v>
+      </c>
+      <c r="R2">
+        <v>1.4852307483932303</v>
+      </c>
+      <c r="S2">
+        <v>9.2947226477153091</v>
+      </c>
+      <c r="T2">
+        <v>-3.67022362315141</v>
+      </c>
+      <c r="U2">
+        <v>-2.2422441707165883</v>
+      </c>
+      <c r="V2">
+        <v>-3.8066208809207552E-2</v>
+      </c>
+      <c r="W2">
+        <v>8.4789244024546555</v>
+      </c>
+      <c r="X2">
+        <v>-0.84088996045445452</v>
+      </c>
+      <c r="Y2">
+        <v>-3.7688459260821232</v>
+      </c>
+      <c r="Z2">
+        <v>0.24759791867923978</v>
+      </c>
+      <c r="AA2">
+        <v>8.6086585645709146</v>
+      </c>
+      <c r="AB2">
+        <v>29.008551763062592</v>
+      </c>
+      <c r="AC2">
+        <v>9.8593245699691394</v>
+      </c>
+      <c r="AD2">
+        <v>10.684460665749727</v>
+      </c>
+      <c r="AE2">
+        <v>1.3624949268926045</v>
+      </c>
+      <c r="AF2">
+        <v>1.6649813723485734</v>
+      </c>
+      <c r="AG2">
+        <v>4.7532161230490075</v>
+      </c>
+      <c r="AH2">
+        <v>3.2390412026692674</v>
+      </c>
+      <c r="AI2">
+        <v>24.360045730241058</v>
+      </c>
+      <c r="AJ2">
+        <v>5.9981700093626005</v>
+      </c>
+      <c r="AK2">
+        <v>7.3026109193719257</v>
+      </c>
+      <c r="AL2">
+        <v>-3.0636609994200485</v>
+      </c>
+      <c r="AM2">
         <v>6.3435202707163434</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>1.783092086562087</v>
       </c>
-      <c r="F2">
-        <v>28.005184281845402</v>
-      </c>
-      <c r="G2">
-        <v>7.6420676913577488</v>
-      </c>
-      <c r="H2">
-        <v>-0.36913027569730128</v>
-      </c>
-      <c r="I2">
-        <v>8.2147704950419893</v>
-      </c>
-      <c r="J2">
-        <v>8.1047841524621838</v>
-      </c>
-      <c r="K2">
-        <v>-3.0931518243500893</v>
-      </c>
-      <c r="L2">
-        <v>7.7378159540206495</v>
-      </c>
-      <c r="M2">
-        <v>3.3631384688914729</v>
-      </c>
-      <c r="N2">
-        <v>19.484201223234653</v>
-      </c>
-      <c r="O2">
-        <v>5.4999095414982202</v>
-      </c>
-      <c r="P2">
-        <v>6.157939716481617</v>
-      </c>
-      <c r="Q2">
-        <v>-12.463613601869003</v>
-      </c>
-      <c r="R2">
-        <v>1.4852307432592984</v>
-      </c>
-      <c r="S2">
-        <v>9.2947226380683716</v>
-      </c>
-      <c r="T2">
-        <v>-3.6702236311650918</v>
-      </c>
-      <c r="U2">
-        <v>-2.2422441800438686</v>
-      </c>
-      <c r="V2">
-        <v>-3.8066229660753931E-2</v>
-      </c>
-      <c r="W2">
-        <v>8.4789243688043676</v>
-      </c>
-      <c r="X2">
-        <v>-0.84088995748096784</v>
-      </c>
-      <c r="Y2">
-        <v>-3.7688459341610581</v>
-      </c>
-      <c r="Z2">
-        <v>0.24759790472079954</v>
-      </c>
-      <c r="AA2">
-        <v>8.6086585860393985</v>
-      </c>
-      <c r="AB2">
-        <v>29.008551752325261</v>
-      </c>
-      <c r="AC2">
-        <v>9.8593245383769315</v>
-      </c>
-      <c r="AD2">
-        <v>10.684460663429942</v>
-      </c>
-      <c r="AE2">
-        <v>1.3624949385553011</v>
-      </c>
-      <c r="AF2">
-        <v>1.6649813579968542</v>
-      </c>
-      <c r="AG2">
-        <v>4.7532160408766515</v>
-      </c>
-      <c r="AH2">
-        <v>3.2390411931921199</v>
-      </c>
-      <c r="AI2">
-        <v>24.360045737597279</v>
-      </c>
-      <c r="AJ2">
-        <v>5.9981699683002248</v>
-      </c>
-      <c r="AK2">
-        <v>7.3026109245792084</v>
-      </c>
-      <c r="AL2">
-        <v>-3.0636610299308509</v>
-      </c>
-      <c r="AM2">
-        <v>6.3435202401169306</v>
-      </c>
-      <c r="AN2">
-        <v>1.7830920325724042</v>
-      </c>
       <c r="AO2">
-        <v>-1.1527132375848352</v>
+        <v>-1.1527132061108813</v>
       </c>
       <c r="AP2">
-        <v>1.38457785590571</v>
+        <v>1.3845778879706252</v>
       </c>
       <c r="AQ2">
-        <v>1.7468664766890254</v>
+        <v>1.7468665119103974</v>
       </c>
       <c r="AR2">
-        <v>4.1231891554393707</v>
+        <v>4.1231891562505361</v>
       </c>
       <c r="AS2">
-        <v>1.7406252565632738</v>
+        <v>1.7406252819684456</v>
       </c>
       <c r="AT2">
-        <v>-2.4260162522124893</v>
+        <v>-2.4260162209133456</v>
       </c>
       <c r="AU2">
-        <v>0.91088549684240816</v>
+        <v>0.91088552037713977</v>
       </c>
       <c r="AV2">
-        <v>5.1698496061865997</v>
+        <v>5.1698496276793193</v>
       </c>
       <c r="AW2">
-        <v>-0.21445606751728163</v>
+        <v>-0.21445603850513886</v>
       </c>
       <c r="AX2">
-        <v>-0.34243384743768251</v>
+        <v>-0.34243382537240646</v>
       </c>
       <c r="AY2">
-        <v>-0.48169693171438699</v>
+        <v>-0.48169691560082473</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.807652646956136</v>
+      </c>
+      <c r="C3">
+        <v>3.9623964839874688</v>
+      </c>
+      <c r="D3">
+        <v>-4.2763153404483019</v>
+      </c>
+      <c r="E3">
+        <v>-3.3312670445818511</v>
+      </c>
+      <c r="F3">
+        <v>13.282185762264135</v>
+      </c>
+      <c r="G3">
+        <v>2.7617725564120392</v>
+      </c>
+      <c r="H3">
+        <v>3.0177313032519857</v>
+      </c>
+      <c r="I3">
+        <v>1.9422449380618441</v>
+      </c>
+      <c r="J3">
+        <v>3.3344152106433933</v>
+      </c>
+      <c r="K3">
+        <v>12.326142396365606</v>
+      </c>
+      <c r="L3">
+        <v>0.866828304930786</v>
+      </c>
+      <c r="M3">
+        <v>3.9592997779080519</v>
+      </c>
+      <c r="N3">
         <v>33.143232035472344</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.2882762550519846</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-14.398161100536644</v>
+      </c>
+      <c r="Q3">
+        <v>1.8541857093548921</v>
+      </c>
+      <c r="R3">
+        <v>7.3636155101970564</v>
+      </c>
+      <c r="S3">
+        <v>8.4985780167608027</v>
+      </c>
+      <c r="T3">
+        <v>6.8287403341812105</v>
+      </c>
+      <c r="U3">
+        <v>-1.6911936105145635</v>
+      </c>
+      <c r="V3">
+        <v>-3.9898661093899515</v>
+      </c>
+      <c r="W3">
+        <v>0.37916509388469322</v>
+      </c>
+      <c r="X3">
+        <v>9.9360100153657953</v>
+      </c>
+      <c r="Y3">
+        <v>5.5564788133836576</v>
+      </c>
+      <c r="Z3">
+        <v>-2.8816816132922489</v>
+      </c>
+      <c r="AA3">
+        <v>6.9232053599844727</v>
+      </c>
+      <c r="AB3">
+        <v>10.234639066357355</v>
+      </c>
+      <c r="AC3">
+        <v>4.7145375732035113</v>
+      </c>
+      <c r="AD3">
+        <v>1.9839739839454333</v>
+      </c>
+      <c r="AE3">
+        <v>3.2998993308528575</v>
+      </c>
+      <c r="AF3">
+        <v>4.5094377439990057</v>
+      </c>
+      <c r="AG3">
+        <v>6.4431801895679168</v>
+      </c>
+      <c r="AH3">
+        <v>5.9921833991573452</v>
+      </c>
+      <c r="AI3">
+        <v>8.3395162256150535</v>
+      </c>
+      <c r="AJ3">
+        <v>2.0049539022977263</v>
+      </c>
+      <c r="AK3">
+        <v>11.186071496508696</v>
+      </c>
+      <c r="AL3">
+        <v>-1.4228082343416502</v>
+      </c>
+      <c r="AM3">
         <v>-3.1778405313996139</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>9.4515205349522233</v>
       </c>
-      <c r="F3">
-        <v>13.282185760823079</v>
-      </c>
-      <c r="G3">
-        <v>2.7617725587234032</v>
-      </c>
-      <c r="H3">
-        <v>3.0177312603045974</v>
-      </c>
-      <c r="I3">
-        <v>1.9422449476437669</v>
-      </c>
-      <c r="J3">
-        <v>3.3344152033871519</v>
-      </c>
-      <c r="K3">
-        <v>12.326142373033244</v>
-      </c>
-      <c r="L3">
-        <v>0.86682828085427754</v>
-      </c>
-      <c r="M3">
-        <v>3.9591499117967701</v>
-      </c>
-      <c r="N3">
-        <v>33.143232013091982</v>
-      </c>
-      <c r="O3">
-        <v>4.2882762370947631</v>
-      </c>
-      <c r="P3">
-        <v>-14.398161122759392</v>
-      </c>
-      <c r="Q3">
-        <v>1.8541856661646983</v>
-      </c>
-      <c r="R3">
-        <v>7.3636154912031806</v>
-      </c>
-      <c r="S3">
-        <v>8.4985780057228446</v>
-      </c>
-      <c r="T3">
-        <v>6.8287403198070331</v>
-      </c>
-      <c r="U3">
-        <v>-1.6911936266782686</v>
-      </c>
-      <c r="V3">
-        <v>-3.9898661207122639</v>
-      </c>
-      <c r="W3">
-        <v>0.37916506825653701</v>
-      </c>
-      <c r="X3">
-        <v>9.936009997895761</v>
-      </c>
-      <c r="Y3">
-        <v>5.5564787843735957</v>
-      </c>
-      <c r="Z3">
-        <v>-2.8816816322735637</v>
-      </c>
-      <c r="AA3">
-        <v>6.9232053562241891</v>
-      </c>
-      <c r="AB3">
-        <v>10.234639081080712</v>
-      </c>
-      <c r="AC3">
-        <v>4.7145375483605916</v>
-      </c>
-      <c r="AD3">
-        <v>1.9839739713492681</v>
-      </c>
-      <c r="AE3">
-        <v>3.2998993471877514</v>
-      </c>
-      <c r="AF3">
-        <v>4.5094377362277474</v>
-      </c>
-      <c r="AG3">
-        <v>6.4431801692665767</v>
-      </c>
-      <c r="AH3">
-        <v>5.992183398852692</v>
-      </c>
-      <c r="AI3">
-        <v>8.3395161915271228</v>
-      </c>
-      <c r="AJ3">
-        <v>2.0049538884087772</v>
-      </c>
-      <c r="AK3">
-        <v>11.186071474460249</v>
-      </c>
-      <c r="AL3">
-        <v>-1.4228082711837886</v>
-      </c>
-      <c r="AM3">
-        <v>-3.177840571865028</v>
-      </c>
-      <c r="AN3">
-        <v>9.4515205077529885</v>
-      </c>
       <c r="AO3">
-        <v>12.374451566010821</v>
+        <v>12.37445158673378</v>
       </c>
       <c r="AP3">
-        <v>-3.1422353425252862</v>
+        <v>-3.1422353339996731</v>
       </c>
       <c r="AQ3">
-        <v>-0.81485192595491907</v>
+        <v>-0.81485189840192296</v>
       </c>
       <c r="AR3">
-        <v>0.83204620698650844</v>
+        <v>0.83204622000806416</v>
       </c>
       <c r="AS3">
-        <v>8.5438860586534862</v>
+        <v>8.5438860665091045</v>
       </c>
       <c r="AT3">
-        <v>0.17691427335813886</v>
+        <v>0.17691430096508085</v>
       </c>
       <c r="AU3">
-        <v>1.2829952689228752</v>
+        <v>1.2829952798894082</v>
       </c>
       <c r="AV3">
-        <v>0.43700599742050861</v>
+        <v>0.4370060520527958</v>
       </c>
       <c r="AW3">
-        <v>2.7447070176634254</v>
+        <v>2.7447070362306674</v>
       </c>
       <c r="AX3">
-        <v>-15.302021689166429</v>
+        <v>-15.302021687305864</v>
       </c>
       <c r="AY3">
-        <v>-8.6125478465153602</v>
+        <v>-8.6125478266370354</v>
       </c>
     </row>
   </sheetData>
